--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D46C4-2F5A-4B6E-832C-EE1323A3E235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9E0AD6-3712-459C-8EE8-9A2A4F39DC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -811,117 +811,118 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AchAuthCode
+    <t>DeleteDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除日期/暫停授權日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已授權成功為暫停授權</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白:未產生媒體
+Y:已產生媒體</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>facmNoEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND RepayBank = ,AND AuthStatus ^i ,AND CreateFlag ^i</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoRepayBankEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayAcct Desc,AuthCreateDate Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易代號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxCd</t>
+  </si>
+  <si>
+    <t>facmNoRepayAcctFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayBank = ,AND RepayAcct = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增授權
+D:取消授權
+Y:刪除(DeleteDate &gt; 0時，顯示用)
+Z:暫停授權(DeleteDate &gt; 0時，顯示用)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AuthStatus
+空:再次授權
+單格空白:未授權
+0:成功授權/取消授權
+1:印鑑不符
+2:無此帳號
+3:委繳戶統一編號不符
+4:已核印成功在案
+5:原交易不存在
+6:電子資料與授權書內容不符
+7:帳戶已結清
+8:印鑑不清
+9:其他
+A:未收到授權書
+B:用戶號碼錯誤
+C;靜止戶
+D:未收到聲明書
+E:授權書資料不全
+F:警示戶
+G:本帳戶不適用授權扣繳
+H:已於他行授權扣款
+I:該用戶已死亡
+Z:未交易或匯入失敗資料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AchAuthCode
 A:紙本新增
 O:舊檔轉換</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AmlCheckItem
-0.非可疑名單/已完成名單確認
-1.需審查/確認
-2.為凍結名單/未確定名單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:Sex</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:RelationCode
-00本人
-01夫
-02妻
-03父
-04母
-05子
-06女
-07兄
-08弟
-09姊
-10妹
-11姪子
-99其他</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeleteDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除日期/暫停授權日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>已授權成功為暫停授權</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:新增授權
-D:取消授權
-Y.刪除(DeleteDate &gt; 0時，顯示用)
-Z.暫停授權(DeleteDate &gt; 0時，顯示用)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>空白:未產生媒體
-Y:已產生媒體</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>facmNoEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AuthStatus
-空白-未授權('':再次授權)
-0-成功授權/取消授權
-1-印鑑不符
-2-無此帳號
-3-委繳戶統一編號不符
-4-已核印成功在案
-5-原交易不存在
-6-電子資料與授權書內容不符
-7-帳戶已結清
-8-印鑑不清
-9-其他
-A-未收到授權書
-B-用戶號碼錯誤
-C-靜止戶
-D-未收到聲明書
-E-授權書資料不全
-F-警示戶
-G-本帳戶不適用授權扣繳
-H-已於他行授權扣款
-I-該用戶已死亡
-Z-未交易或匯入失敗資料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND RepayBank = ,AND AuthStatus ^i ,AND CreateFlag ^i</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>custNoRepayBankEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayAcct Desc,AuthCreateDate Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易代號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxCd</t>
-  </si>
-  <si>
-    <t>facmNoRepayAcctFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayBank = ,AND RepayAcct = </t>
+    <t>CdCode.RelationCode
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.Sex</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1606,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1840,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1903,7 +1904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="356.4">
+    <row r="18" spans="1:7" ht="372.6">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6">
@@ -1940,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1983,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2045,10 +2046,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>74</v>
@@ -2057,7 +2058,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="226.8">
@@ -2077,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2151,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="64.8">
@@ -2171,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2179,10 +2180,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>32</v>
@@ -2281,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
@@ -2444,7 +2445,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>118</v>
@@ -2466,21 +2467,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
